--- a/biology/Médecine/Foramen_orbitaire/Foramen_orbitaire.xlsx
+++ b/biology/Médecine/Foramen_orbitaire/Foramen_orbitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le foramen orbitaire (ou foramen infra-orbitaire ou trou sous-orbitaire[1]) est une ouverture de la face antérieure de  l'os maxillaire du crâne située  en dessous du bord inférieur de  l'orbite.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le foramen orbitaire (ou foramen infra-orbitaire ou trou sous-orbitaire) est une ouverture de la face antérieure de  l'os maxillaire du crâne située  en dessous du bord inférieur de  l'orbite.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen orbitaire se situe entre 6 mm et 11 mm sous le milieu du bord de l'orbite.
 Il forme l'extrémité extérieure du canal infra-orbitaire qui communique avec le sillon infra-orbitaire situé dans l'orbite.
@@ -543,7 +557,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen orbitaire permet le passage des ramifications du nerf infra-orbitaire et de l'artère et de la veine infra-orbitaire.
 </t>
@@ -574,10 +590,12 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ramifications des trois branches principales du nerf trijumeau passent au niveau des foramens supra-orbitaire, infra-orbitaire et mentonnier. Ces trois foramens ont situés sur une ligne verticale (en vue antérieure) passant par le milieu de la pupille.
-Le foramen orbitaire est utilisé comme point de pression pour tester la sensibilité du nerf sous-orbitaire[2],[3] lors  de l'administration d'un anesthésique local.
+Le foramen orbitaire est utilisé comme point de pression pour tester la sensibilité du nerf sous-orbitaire, lors  de l'administration d'un anesthésique local.
 </t>
         </is>
       </c>
